--- a/data/大地保险/大地保险报表.xlsx
+++ b/data/大地保险/大地保险报表.xlsx
@@ -398,133 +398,155 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>40531553</t>
+          <t>20513759</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>临时会议(40531553)</t>
+          <t>临时会议(20513759)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2019-05-01 04:33:30</t>
+          <t>2019-04-30 00:01:29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019-05-02 00:00:38</t>
+          <t>2019-04-30 19:23:12</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>61101081_茂名
-61101036_东莞分中心-广东三区</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>61101192_通辽地面
+61101200_呼伦贝尔二促
+61101052_上海中心-内蒙二区</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>61101192-&gt;61101052
+61101200-&gt;61101052</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>50534031</t>
+          <t>50534017</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>临时会议(50534031)</t>
+          <t>临时会议(50534017)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2019-05-01 23:39:42</t>
+          <t>2019-04-30 05:57:10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2019-05-02 00:00:54</t>
+          <t>2019-04-30 20:15:40</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>61101025_潍坊-安徽一区
-61101202_潍坊-安徽一区-池州</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>61101154_未命名
+61101063_未命名
+61101155_未命名
+61101045_绵阳中心-四川二区</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>61101154-&gt;61101063
+61101154-&gt;61101045
+61101063-&gt;61101045
+61101063-&gt;61101154
+61101045-&gt;61101063
+61101045-&gt;61101154</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>50522379</t>
+          <t>40535653</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>临时会议(50522379)</t>
+          <t>临时会议(40535653)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019-05-01 23:39:54</t>
+          <t>2019-04-30 07:40:26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2019-05-02 00:00:56</t>
+          <t>2019-04-30 19:13:50</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>61101018_未命名
-61101172_辽宁-营口</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>61101116_潍坊-山东三区-临沂
+61101119_潍坊山东三区枣庄
+61101033_潍坊-山东三区</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>61101033-&gt;61101116</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20512343</t>
+          <t>60534001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>临时会议(20512343)</t>
+          <t>临时会议(60534001)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019-05-01 23:39:55</t>
+          <t>2019-04-30 07:40:29</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2019-05-02 00:01:10</t>
+          <t>2019-05-01 00:00:24</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -532,16 +554,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>61101167_松原
-61101163_吉林吉林市</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>61101118_潍坊山东五区威海机构
+61101020_潍坊山东五区</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>61101118-&gt;61101020
+61101020-&gt;61101118</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/大地保险/大地保险报表.xlsx
+++ b/data/大地保险/大地保险报表.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,177 +398,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20513759</t>
+          <t>30554949</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>临时会议(20513759)</t>
+          <t>临时会议(30554949)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2019-04-30 00:01:29</t>
+          <t>2019-05-15 18:15:43</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019-04-30 19:23:12</t>
+          <t>2019-05-15 18:15:45</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>61101192_通辽地面
-61101200_呼伦贝尔二促
-61101052_上海中心-内蒙二区</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>61101192-&gt;61101052
-61101200-&gt;61101052</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>50534017</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>临时会议(50534017)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2019-04-30 05:57:10</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2019-04-30 20:15:40</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>50.0%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>61101154_未命名
-61101063_未命名
-61101155_未命名
-61101045_绵阳中心-四川二区</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>61101154-&gt;61101063
-61101154-&gt;61101045
-61101063-&gt;61101045
-61101063-&gt;61101154
-61101045-&gt;61101063
-61101045-&gt;61101154</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>40535653</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>临时会议(40535653)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2019-04-30 07:40:26</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2019-04-30 19:13:50</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>80.0%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>61101116_潍坊-山东三区-临沂
-61101119_潍坊山东三区枣庄
-61101033_潍坊-山东三区</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>61101033-&gt;61101116</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>60534001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>临时会议(60534001)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2019-04-30 07:40:29</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2019-05-01 00:00:24</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>61101118_潍坊山东五区威海机构
-61101020_潍坊山东五区</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>61101118-&gt;61101020
-61101020-&gt;61101118</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/大地保险/大地保险报表.xlsx
+++ b/data/大地保险/大地保险报表.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,30 +398,518 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30554949</t>
+          <t>40451087</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>临时会议(30554949)</t>
+          <t>临时会议(40451087)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2019-05-15 18:15:43</t>
+          <t>2019-01-21 08:24:02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019-05-15 18:15:45</t>
+          <t>2019-01-21 11:08:34</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>69900332_泰兴业务部
+69900329_泰州
+69900333_泰州姜堰业务部
+69900334_兴化业务部
+69900331_靖江业务部</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>50451083</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>临时会议(50451083)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2019-01-21 08:27:48</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2019-01-21 09:10:25</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>69900306_灌南
+69900301_连云港
+69900302_连云港--赣榆
+69900303_连云港-东海
+69900304_灌云业务部
+69900305_连云区</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>50451085</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>临时会议(50451085)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2019-01-21 08:30:57</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2019-01-21 08:43:36</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>69900050_宁德福安
+69900049_宁德
+69900052_宁德霞浦
+69900051_福鼎</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>80451090</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>临时会议(80451090)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2019-01-21 08:42:02</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2019-01-21 08:43:09</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>69900372_江苏21楼会议室
+69900363_江苏江北办事处</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10451093</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>临时会议(10451093)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2019-01-21 08:43:48</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2019-01-21 09:33:59</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>69900163_惠州分公司
+69900182_汕头分公司</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>50451095</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>临时会议(50451095)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2019-01-21 08:45:39</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2019-01-21 09:32:45</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>85.0%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>69900575_东平
+69900577_肥城
+69900576_新泰业务部
+69900574_宁阳业务部
+69900573_泰安分公司</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>69900573-&gt;69900574
+69900573-&gt;69900575
+69900573-&gt;69900576</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>40451109</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>临时会议(40451109)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2019-01-21 09:06:20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2019-01-21 11:35:59</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>65000865_102会议室
+69900372_江苏21楼会议室</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>60451205</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>临时会议(60451205)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2019-01-21 13:55:06</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2019-01-21 15:28:06</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>69900902_武汉运行中心C4
+65000570_上海总公司</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>40451209</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>临时会议(40451209)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2019-01-21 14:13:34</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2019-01-21 14:26:41</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>69900371_江苏分公司
+69900372_江苏21楼会议室</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>90451217</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>临时会议(90451217)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2019-01-21 14:40:27</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2019-01-21 16:09:23</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>65000593_小会议室中
+69900000_test</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30451293</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>临时会议(30451293)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2019-01-21 16:30:05</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2019-01-21 17:54:44</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>69900080_沙县
+69900084_建宁
+69900074_ 三明业务部
+69900076_将乐
+69900083_泰宁县
+69900079_三明尤溪
+69900077_永安
+69900078_三明大田
+69900075_宁化县</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10451317</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>临时会议(10451317)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2019-01-21 17:32:44</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2019-01-21 19:00:44</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>69900853_鄂尔多斯业务部
+69900484_杭锦旗业务部
+69900854_伊旗业务部
+69900856_达拉特旗</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20451323</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>临时会议(20451323)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2019-01-21 17:37:38</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2019-01-21 19:49:41</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>95.83%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>69900013_安徽分公司阜阳业务部界首
+69900015_安徽分公司阜阳业务部太和
+69900014_阜南
+69900012_安徽分公司阜阳业务部临泉县
+69900011_安徽分公司阜阳业务部
+69900016_安徽分公司阜阳业务部颍上县办事处</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>69900013-&gt;69900014</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
